--- a/biology/Zoologie/Amolops_spinapectoralis/Amolops_spinapectoralis.xlsx
+++ b/biology/Zoologie/Amolops_spinapectoralis/Amolops_spinapectoralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops spinapectoralis est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops spinapectoralis est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du centre du Viêt Nam[1]. Elle se rencontre dans les provinces de Gia Lai, de Kon Tum et de Quảng Nam et dans la municipalité de Đà Nẵng.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du centre du Viêt Nam. Elle se rencontre dans les provinces de Gia Lai, de Kon Tum et de Quảng Nam et dans la municipalité de Đà Nẵng.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops spinapectoralis[2] mesure de 47 à 53 mm pour les mâles et de 52 à 67 mm pour les femelles. Cette espèce a la face dorsale colorée d'un réseau brun et olive entourant de grandes taches noires. Sa face ventrale est blanchâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops spinapectoralis mesure de 47 à 53 mm pour les mâles et de 52 à 67 mm pour les femelles. Cette espèce a la face dorsale colorée d'un réseau brun et olive entourant de grandes taches noires. Sa face ventrale est blanchâtre.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin spina, « épine », et pectoralis, « poitrine », lui a été donné en référence aux épines pectorales qu'arborent les mâles adultes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin spina, « épine », et pectoralis, « poitrine », lui a été donné en référence aux épines pectorales qu'arborent les mâles adultes.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Inger, Orlov &amp; Darevsky, 1999 : Frogs of Vietnam: A report on new collections. Fieldiana, Zoology, New Series, vol. 92, p. 1-46 (texte intégral).</t>
         </is>
